--- a/resources/data-imports/npcs.xlsx
+++ b/resources/data-imports/npcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -87,6 +87,36 @@
     <t>/m TheWitch:</t>
   </si>
   <si>
+    <t>DungeonMaster</t>
+  </si>
+  <si>
+    <t>Dungeon Master</t>
+  </si>
+  <si>
+    <t>/m DungeonMaster:</t>
+  </si>
+  <si>
+    <t>LabyrinthOracle</t>
+  </si>
+  <si>
+    <t>Labyrinth Oracle</t>
+  </si>
+  <si>
+    <t>/m LabyrinthOracle:</t>
+  </si>
+  <si>
+    <t>DungeonMaiden</t>
+  </si>
+  <si>
+    <t>Dungeon Maiden</t>
+  </si>
+  <si>
+    <t>Dungeons</t>
+  </si>
+  <si>
+    <t>/m DungeonMaiden:</t>
+  </si>
+  <si>
     <t>npc_id</t>
   </si>
   <si>
@@ -106,6 +136,15 @@
   </si>
   <si>
     <t>Books</t>
+  </si>
+  <si>
+    <t>Enter Dungeon</t>
+  </si>
+  <si>
+    <t>Conjure Fiend</t>
+  </si>
+  <si>
+    <t>Summon</t>
   </si>
 </sst>
 </file>
@@ -444,7 +483,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,8 +491,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
@@ -591,6 +630,84 @@
       </c>
       <c r="I5">
         <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>128</v>
+      </c>
+      <c r="I6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>112</v>
+      </c>
+      <c r="I7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>128</v>
+      </c>
+      <c r="I8">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +731,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,20 +739,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -643,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -654,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -665,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -676,10 +793,43 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/npcs.xlsx
+++ b/resources/data-imports/npcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>DungeonMaiden</t>
-  </si>
-  <si>
-    <t>Dungeon Maiden</t>
   </si>
   <si>
     <t>Dungeons</t>
@@ -689,25 +686,25 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
       <c r="H8">
-        <v>128</v>
+        <v>448</v>
       </c>
       <c r="I8">
-        <v>432</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -746,13 +743,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -760,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -771,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -782,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -793,7 +790,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -804,7 +801,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -815,7 +812,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -823,10 +820,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2</v>

--- a/resources/data-imports/npcs.xlsx
+++ b/resources/data-imports/npcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,15 @@
     <t>/m DungeonMaiden:</t>
   </si>
   <si>
+    <t>WonderingMerchant</t>
+  </si>
+  <si>
+    <t>Wondering Merchant</t>
+  </si>
+  <si>
+    <t>/m WonderingMerchant:</t>
+  </si>
+  <si>
     <t>npc_id</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
   </si>
   <si>
     <t>Summon</t>
+  </si>
+  <si>
+    <t>Voidance</t>
   </si>
 </sst>
 </file>
@@ -480,7 +492,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,8 +500,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="13" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
@@ -705,6 +717,32 @@
       </c>
       <c r="I8">
         <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -728,7 +766,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,20 +774,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="16" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -757,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -768,7 +806,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -779,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -790,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -801,7 +839,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -812,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -823,10 +861,21 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/npcs.xlsx
+++ b/resources/data-imports/npcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,15 @@
     <t>/m WonderingMerchant:</t>
   </si>
   <si>
+    <t>LabyrinthWeaver</t>
+  </si>
+  <si>
+    <t>Labyrinth Weaver</t>
+  </si>
+  <si>
+    <t>/m LabyrinthWeaver:</t>
+  </si>
+  <si>
     <t>npc_id</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
   </si>
   <si>
     <t>Voidance</t>
+  </si>
+  <si>
+    <t>Make Sash</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +757,32 @@
         <v>256</v>
       </c>
     </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>384</v>
+      </c>
+      <c r="I10">
+        <v>496</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -766,7 +804,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -781,13 +819,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -795,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -806,7 +844,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -817,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -828,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -839,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -850,7 +888,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -861,7 +899,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -872,9 +910,20 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/npcs.xlsx
+++ b/resources/data-imports/npcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -132,6 +132,51 @@
     <t>/m LabyrinthWeaver:</t>
   </si>
   <si>
+    <t>ShadeLord</t>
+  </si>
+  <si>
+    <t>Shade Lord</t>
+  </si>
+  <si>
+    <t>Shadow Plane</t>
+  </si>
+  <si>
+    <t>/m ShadeLord:</t>
+  </si>
+  <si>
+    <t>DrunkenAdventurer</t>
+  </si>
+  <si>
+    <t>/m DrunkenAdventurer:</t>
+  </si>
+  <si>
+    <t>ChildofShade</t>
+  </si>
+  <si>
+    <t>Child of Shade</t>
+  </si>
+  <si>
+    <t>/m ChildofShade:</t>
+  </si>
+  <si>
+    <t>HellsGateKeeper</t>
+  </si>
+  <si>
+    <t>Hell</t>
+  </si>
+  <si>
+    <t>/m HellsGateKeeper:</t>
+  </si>
+  <si>
+    <t>QueenofHearts</t>
+  </si>
+  <si>
+    <t>Queen of Hearts</t>
+  </si>
+  <si>
+    <t>/m QueenofHearts:</t>
+  </si>
+  <si>
     <t>npc_id</t>
   </si>
   <si>
@@ -166,6 +211,21 @@
   </si>
   <si>
     <t>Make Sash</t>
+  </si>
+  <si>
+    <t>Shades</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Shadows</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>Enchantments</t>
   </si>
 </sst>
 </file>
@@ -504,7 +564,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +575,7 @@
     <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="29" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="28" bestFit="true" customWidth="true" style="0"/>
@@ -781,6 +841,136 @@
       </c>
       <c r="I10">
         <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>288</v>
+      </c>
+      <c r="I11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <v>384</v>
+      </c>
+      <c r="I12">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>320</v>
+      </c>
+      <c r="I13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15">
+        <v>432</v>
+      </c>
+      <c r="I15">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +994,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,13 +1009,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -833,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -844,7 +1034,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -855,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -866,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -877,7 +1067,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -888,7 +1078,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -899,7 +1089,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -910,7 +1100,7 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -921,10 +1111,65 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/npcs.xlsx
+++ b/resources/data-imports/npcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -177,6 +177,15 @@
     <t>/m QueenofHearts:</t>
   </si>
   <si>
+    <t>HelplessGoblin</t>
+  </si>
+  <si>
+    <t>Helpless Goblin</t>
+  </si>
+  <si>
+    <t>/m HelplessGoblin:</t>
+  </si>
+  <si>
     <t>npc_id</t>
   </si>
   <si>
@@ -226,6 +235,9 @@
   </si>
   <si>
     <t>Enchantments</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -564,7 +576,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +985,32 @@
         <v>80</v>
       </c>
     </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>176</v>
+      </c>
+      <c r="I16">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -994,7 +1032,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,13 +1047,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1023,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1034,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1045,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1056,7 +1094,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1067,7 +1105,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1078,7 +1116,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1089,7 +1127,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1100,7 +1138,7 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1111,7 +1149,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1122,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1133,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1144,7 +1182,7 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1155,7 +1193,7 @@
         <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1166,10 +1204,21 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/npcs.xlsx
+++ b/resources/data-imports/npcs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -114,13 +114,10 @@
     <t>/m DungeonMaiden:</t>
   </si>
   <si>
-    <t>WonderingMerchant</t>
-  </si>
-  <si>
-    <t>Wondering Merchant</t>
-  </si>
-  <si>
-    <t>/m WonderingMerchant:</t>
+    <t>WanderingMerchant</t>
+  </si>
+  <si>
+    <t>/m WanderingMerchant:</t>
   </si>
   <si>
     <t>LabyrinthWeaver</t>
@@ -186,6 +183,24 @@
     <t>/m HelplessGoblin:</t>
   </si>
   <si>
+    <t>CandleMaker</t>
+  </si>
+  <si>
+    <t>Candle Maker</t>
+  </si>
+  <si>
+    <t>/m CandleMaker:</t>
+  </si>
+  <si>
+    <t>HellsAccountant</t>
+  </si>
+  <si>
+    <t>Hells Accountant</t>
+  </si>
+  <si>
+    <t>/m HellsAccountant:</t>
+  </si>
+  <si>
     <t>npc_id</t>
   </si>
   <si>
@@ -238,6 +253,12 @@
   </si>
   <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>Make Candle</t>
+  </si>
+  <si>
+    <t>Hells Currencies</t>
   </si>
 </sst>
 </file>
@@ -261,10 +282,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -576,7 +594,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,7 +603,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="21" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
@@ -808,7 +826,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -820,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>32</v>
@@ -831,10 +849,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -846,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10">
         <v>384</v>
@@ -857,22 +875,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>40</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
       </c>
       <c r="H11">
         <v>288</v>
@@ -883,10 +901,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -898,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>384</v>
@@ -909,22 +927,22 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>45</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
       </c>
       <c r="H13">
         <v>320</v>
@@ -935,22 +953,22 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>49</v>
       </c>
       <c r="H14">
         <v>16</v>
@@ -961,22 +979,22 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15">
         <v>432</v>
@@ -987,10 +1005,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -1002,13 +1020,65 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16">
         <v>176</v>
       </c>
       <c r="I16">
         <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17">
+        <v>384</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18">
+        <v>32</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +1102,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,20 +1110,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="15" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1061,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1072,7 +1142,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1083,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1094,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1105,7 +1175,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1116,7 +1186,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1127,7 +1197,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1135,10 +1205,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1146,10 +1216,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1157,10 +1227,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1168,10 +1238,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1179,10 +1249,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1190,10 +1260,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1201,10 +1271,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1212,12 +1282,34 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/npcs.xlsx
+++ b/resources/data-imports/npcs.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -51,9 +54,6 @@
     <t>The Old Man</t>
   </si>
   <si>
-    <t>Surface</t>
-  </si>
-  <si>
     <t>/m TheOldMan:</t>
   </si>
   <si>
@@ -81,9 +81,6 @@
     <t>The Witch</t>
   </si>
   <si>
-    <t>Labyrinth</t>
-  </si>
-  <si>
     <t>/m TheWitch:</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>DungeonMaiden</t>
   </si>
   <si>
-    <t>Dungeons</t>
-  </si>
-  <si>
     <t>/m DungeonMaiden:</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Shade Lord</t>
   </si>
   <si>
-    <t>Shadow Plane</t>
-  </si>
-  <si>
     <t>/m ShadeLord:</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
   </si>
   <si>
     <t>HellsGateKeeper</t>
-  </si>
-  <si>
-    <t>Hell</t>
   </si>
   <si>
     <t>/m HellsGateKeeper:</t>
@@ -594,7 +582,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,18 +590,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="28" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,443 +630,497 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>96</v>
+      </c>
+      <c r="J2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>160</v>
+      </c>
+      <c r="J3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>464</v>
+      </c>
+      <c r="J4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>176</v>
+      </c>
+      <c r="J5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>128</v>
+      </c>
+      <c r="J6">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>112</v>
+      </c>
+      <c r="J7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>448</v>
+      </c>
+      <c r="J8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>384</v>
+      </c>
+      <c r="J10">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>288</v>
+      </c>
+      <c r="J11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12">
+        <v>384</v>
+      </c>
+      <c r="J12">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="H2">
-        <v>96</v>
-      </c>
-      <c r="I2">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>320</v>
+      </c>
+      <c r="J13">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15">
+        <v>432</v>
+      </c>
+      <c r="J15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>160</v>
-      </c>
-      <c r="I3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>176</v>
+      </c>
+      <c r="J16">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>384</v>
+      </c>
+      <c r="J17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>464</v>
-      </c>
-      <c r="I4">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5">
-        <v>176</v>
-      </c>
-      <c r="I5">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>128</v>
-      </c>
-      <c r="I6">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7">
-        <v>112</v>
-      </c>
-      <c r="I7">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <v>448</v>
-      </c>
-      <c r="I8">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-      <c r="I9">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10">
-        <v>384</v>
-      </c>
-      <c r="I10">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11">
-        <v>288</v>
-      </c>
-      <c r="I11">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12">
-        <v>384</v>
-      </c>
-      <c r="I12">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13">
-        <v>320</v>
-      </c>
-      <c r="I13">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15">
-        <v>432</v>
-      </c>
-      <c r="I15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16">
-        <v>176</v>
-      </c>
-      <c r="I16">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17">
-        <v>384</v>
-      </c>
-      <c r="I17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18">
-        <v>32</v>
-      </c>
-      <c r="I18">
+      <c r="J18">
         <v>16</v>
       </c>
     </row>
@@ -1102,7 +1145,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,206 +1153,261 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18">
+      <c r="D18">
         <v>0</v>
       </c>
     </row>
